--- a/xlsx/南达科他州_intext.xlsx
+++ b/xlsx/南达科他州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t>南达科他州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_南达科他州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>南達科他州州旗</t>
+    <t>南达科他州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%80%91</t>
   </si>
   <si>
-    <t>蘇瀑</t>
+    <t>苏瀑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_South_Dakota</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9C%96%E6%81%A9</t>
   </si>
   <si>
-    <t>約翰·圖恩</t>
+    <t>约翰·图恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E5%85%8B%C2%B7%E6%9C%97%E8%8C%B2</t>
   </si>
   <si>
-    <t>邁克·朗茲</t>
+    <t>迈克·朗兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%8F</t>
   </si>
   <si>
-    <t>蘇族</t>
+    <t>苏族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -233,31 +233,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%96%86%E5%B8%B6</t>
   </si>
   <si>
-    <t>邊疆帶</t>
+    <t>边疆带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E8%99%9F%E6%88%B0%E8%89%A6_(BB-57)</t>
   </si>
   <si>
-    <t>南達科他號戰艦 (BB-57)</t>
+    <t>南达科他号战舰 (BB-57)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_South_Dakota_counties</t>
@@ -299,13 +299,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%97%8F</t>
   </si>
   <si>
-    <t>苏族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E6%91%A9%E7%88%BE%E5%B1%B1%E5%9C%8B%E5%AE%B6%E7%B4%80%E5%BF%B5%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>羅斯摩爾山國家紀念公園</t>
+    <t>罗斯摩尔山国家纪念公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BB%80%E8%8E%AB%E5%B0%94%E5%B1%B1</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%B4%8D%E7%B8%A3_(%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>特納縣 (南達科他州)</t>
+    <t>特纳县 (南达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%BE%8E%E8%A3%94%E4%BA%BA</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
@@ -377,31 +374,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E6%9C%83</t>
   </si>
   <si>
-    <t>路德會</t>
+    <t>路德会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%85%AC%E6%9C%83%E6%B4%BE</t>
   </si>
   <si>
-    <t>衛理公會派</t>
+    <t>卫理公会派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E5%A1%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南達科塔大學</t>
+    <t>南达科塔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E5%A1%94%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南達科塔州立大學</t>
+    <t>南达科塔州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E7%A4%A6%E6%A5%AD%E5%8F%8A%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>南達科他礦業及理工學院</t>
+    <t>南达科他矿业及理工学院</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Black_Hills_State_University</t>
@@ -503,33 +500,21 @@
     <t>https://zh.wikipedia.org/wiki/90%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>90號州際公路</t>
+    <t>90号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼苏达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>内布拉斯加州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
   </si>
   <si>
@@ -545,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -563,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -581,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -605,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -635,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -665,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -683,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -731,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -749,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -797,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -809,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -821,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -851,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -863,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -875,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -887,25 +872,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -935,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -953,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -971,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -983,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2694,7 +2679,7 @@
         <v>93</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2720,10 +2705,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2749,10 +2734,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2778,10 +2763,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2807,10 +2792,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2865,10 +2850,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2894,10 +2879,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2923,10 +2908,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2952,10 +2937,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2981,10 +2966,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3010,10 +2995,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3039,10 +3024,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3068,10 +3053,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3097,10 +3082,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3126,10 +3111,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3155,10 +3140,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3184,10 +3169,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3213,10 +3198,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3242,10 +3227,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3271,10 +3256,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3300,10 +3285,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3329,10 +3314,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3358,10 +3343,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3387,10 +3372,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3416,10 +3401,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3445,10 +3430,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3474,10 +3459,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3503,10 +3488,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3532,10 +3517,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3561,10 +3546,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3590,10 +3575,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3619,10 +3604,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3648,10 +3633,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3677,10 +3662,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3706,10 +3691,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3735,10 +3720,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3764,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3793,10 +3778,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3822,10 +3807,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3851,10 +3836,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3880,10 +3865,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3909,10 +3894,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3938,10 +3923,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3967,10 +3952,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3996,10 +3981,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4025,10 +4010,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4054,10 +4039,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4083,10 +4068,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4112,10 +4097,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4141,10 +4126,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4170,10 +4155,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4199,10 +4184,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4228,10 +4213,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4257,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4286,10 +4271,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4315,10 +4300,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4344,10 +4329,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F104" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4373,10 +4358,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4402,10 +4387,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4431,10 +4416,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4460,10 +4445,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4489,10 +4474,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4518,10 +4503,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4547,10 +4532,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4605,10 +4590,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4634,10 +4619,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4721,10 +4706,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4750,10 +4735,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4779,10 +4764,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4808,10 +4793,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4837,10 +4822,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4866,10 +4851,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4895,10 +4880,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -4924,10 +4909,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4953,10 +4938,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4982,10 +4967,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5011,10 +4996,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5040,10 +5025,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5069,10 +5054,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5098,10 +5083,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5127,10 +5112,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5156,10 +5141,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5185,10 +5170,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5214,10 +5199,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5243,10 +5228,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5272,10 +5257,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5301,10 +5286,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5330,10 +5315,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5359,10 +5344,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5388,10 +5373,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5417,10 +5402,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5446,10 +5431,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5475,10 +5460,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5504,10 +5489,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5533,10 +5518,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5562,10 +5547,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5591,10 +5576,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5620,10 +5605,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5649,10 +5634,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5678,10 +5663,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5707,10 +5692,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5736,10 +5721,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5765,10 +5750,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5794,10 +5779,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5823,10 +5808,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5852,10 +5837,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5881,10 +5866,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5910,10 +5895,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5939,10 +5924,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5968,10 +5953,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -5997,10 +5982,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6026,10 +6011,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6055,10 +6040,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6084,10 +6069,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6113,10 +6098,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6142,10 +6127,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6171,10 +6156,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6200,10 +6185,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6229,10 +6214,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
